--- a/data/trans_camb/P43-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P43-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P43-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P43-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,56</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 22,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,94; 13,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,91; 18,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 22,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,94; 13,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,91; 18,16</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,36%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,93; 50,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,75; 32,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,88; 42,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,93; 50,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,75; 32,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,88; 42,84</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,86</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,98</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,11</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,86</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,98</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,7; 18,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,36; 22,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,68; 24,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,7; 18,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,36; 22,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,68; 24,4</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,49%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,8; 61,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,63; 75,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,27; 82,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,8; 61,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,63; 75,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,27; 82,0</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,14</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,14</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,47; 14,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,99; 21,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,56; 17,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,47; 14,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,99; 21,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,56; 17,22</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,13%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,11; 43,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,85; 65,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,78; 52,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,11; 43,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,85; 65,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,78; 52,12</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,65</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,65</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,49; 14,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 9,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,33; 40,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,49; 14,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 9,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,33; 40,28</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,75%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,75%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,23; 38,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 26,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,17; 108,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,23; 38,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 26,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,17; 108,54</t>
         </is>
       </c>
     </row>
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,79</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,79</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 11,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,21; 15,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,8; 18,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 11,65</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,21; 15,38</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,8; 18,57</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,56%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,5; 30,46</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,17; 39,08</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,97; 47,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,5; 30,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,17; 39,08</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,97; 47,33</t>
         </is>
       </c>
     </row>
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,49</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,49</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,91; 11,76</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,69; 14,52</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,53; 22,62</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,91; 11,76</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,69; 14,52</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,53; 22,62</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,72%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,72%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,5%</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,55; 31,96</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,93; 39,65</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,11; 60,18</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,55; 31,96</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,93; 39,65</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,11; 60,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P43-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P43-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,86</t>
+          <t>11,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>14,34</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>17,46</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,86</t>
+          <t>11,69</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>14,34</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>17,46</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 22,23</t>
+          <t>6,19; 16,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 13,07</t>
+          <t>9,18; 19,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 18,16</t>
+          <t>12,06; 22,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 22,23</t>
+          <t>6,19; 16,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 13,07</t>
+          <t>9,18; 19,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 18,16</t>
+          <t>12,06; 22,29</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>40,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>48,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>40,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>48,95%</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 50,75</t>
+          <t>16,65; 51,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,75; 32,4</t>
+          <t>24,91; 61,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 42,84</t>
+          <t>31,62; 68,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 50,75</t>
+          <t>16,65; 51,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,75; 32,4</t>
+          <t>24,91; 61,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 42,84</t>
+          <t>31,62; 68,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,11</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,86</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,98</t>
+          <t>13,96</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,11</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,86</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,98</t>
+          <t>13,96</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,7; 18,39</t>
+          <t>5,47; 14,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,36; 22,42</t>
+          <t>12,99; 21,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,68; 24,4</t>
+          <t>9,35; 18,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,7; 18,39</t>
+          <t>5,47; 14,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,36; 22,42</t>
+          <t>12,99; 21,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,68; 24,4</t>
+          <t>9,35; 18,08</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>57,49%</t>
+          <t>39,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>57,49%</t>
+          <t>39,45%</t>
         </is>
       </c>
     </row>
@@ -1022,39 +1022,39 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,8; 61,64</t>
+          <t>14,11; 43,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,63; 75,03</t>
+          <t>33,85; 65,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,27; 82,0</t>
+          <t>24,96; 55,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,8; 61,64</t>
+          <t>14,11; 43,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,63; 75,03</t>
+          <t>33,85; 65,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,27; 82,0</t>
+          <t>24,96; 55,01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,89</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,18</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,14</t>
+          <t>30,32</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,89</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,18</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,14</t>
+          <t>30,32</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 14,44</t>
+          <t>3,49; 14,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,99; 21,63</t>
+          <t>-0,46; 9,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,56; 17,22</t>
+          <t>16,0; 48,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,47; 14,44</t>
+          <t>3,49; 14,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,99; 21,63</t>
+          <t>-0,46; 9,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,56; 17,22</t>
+          <t>16,0; 48,11</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>48,55%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>77,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>23,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>48,55%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>77,9%</t>
         </is>
       </c>
     </row>
@@ -1238,39 +1238,39 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,11; 43,78</t>
+          <t>8,23; 38,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>33,85; 65,0</t>
+          <t>-1,3; 26,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,78; 52,12</t>
+          <t>40,45; 128,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,11; 43,78</t>
+          <t>8,23; 38,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,85; 65,0</t>
+          <t>-1,3; 26,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,78; 52,12</t>
+          <t>40,45; 128,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,97</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,65</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,97</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23,65</t>
+          <t>10,81</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,49; 14,28</t>
+          <t>2,84; 11,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 9,74</t>
+          <t>6,21; 15,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,33; 40,28</t>
+          <t>-3,95; 16,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,49; 14,28</t>
+          <t>2,84; 11,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 9,74</t>
+          <t>6,21; 15,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,33; 40,28</t>
+          <t>-3,95; 16,97</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>60,75%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>60,75%</t>
+          <t>26,31%</t>
         </is>
       </c>
     </row>
@@ -1454,39 +1454,39 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,23; 38,05</t>
+          <t>6,5; 30,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 26,84</t>
+          <t>14,17; 39,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>36,17; 108,54</t>
+          <t>-8,94; 42,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,23; 38,05</t>
+          <t>6,5; 30,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 26,84</t>
+          <t>14,17; 39,08</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>36,17; 108,54</t>
+          <t>-8,94; 42,56</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,79</t>
+          <t>18,02</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>13,79</t>
+          <t>18,02</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,84; 11,65</t>
+          <t>6,91; 11,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,21; 15,38</t>
+          <t>9,69; 14,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,8; 18,57</t>
+          <t>13,1; 28,7</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,84; 11,65</t>
+          <t>6,91; 11,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,21; 15,38</t>
+          <t>9,69; 14,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,8; 18,57</t>
+          <t>13,1; 28,7</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>31,72%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>33,56%</t>
+          <t>47,53%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>31,72%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>33,56%</t>
+          <t>47,53%</t>
         </is>
       </c>
     </row>
@@ -1670,260 +1670,44 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,5; 30,46</t>
+          <t>17,55; 31,96</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>14,17; 39,08</t>
+          <t>24,93; 39,65</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>19,97; 47,33</t>
+          <t>33,96; 75,73</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,5; 30,46</t>
+          <t>17,55; 31,96</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>14,17; 39,08</t>
+          <t>24,93; 39,65</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>19,97; 47,33</t>
+          <t>33,96; 75,73</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>9,24</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>12,02</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>16,49</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>9,24</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>12,02</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>16,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>6,91; 11,76</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>9,69; 14,52</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>13,53; 22,62</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>6,91; 11,76</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>9,69; 14,52</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>13,53; 22,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>24,37%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>31,72%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>43,5%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>24,37%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>31,72%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>43,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>17,55; 31,96</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>24,93; 39,65</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>35,11; 60,18</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>17,55; 31,96</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>24,93; 39,65</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>35,11; 60,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P43-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P43-Habitat-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,19; 16,86</t>
+          <t>6,12; 17,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,18; 19,88</t>
+          <t>9,01; 19,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,06; 22,29</t>
+          <t>12,15; 22,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,19; 16,86</t>
+          <t>6,12; 17,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,18; 19,88</t>
+          <t>9,01; 19,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,06; 22,29</t>
+          <t>12,15; 22,36</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,65; 51,53</t>
+          <t>16,93; 51,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,91; 61,32</t>
+          <t>23,97; 59,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,62; 68,46</t>
+          <t>31,72; 67,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,65; 51,53</t>
+          <t>16,93; 51,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,91; 61,32</t>
+          <t>23,97; 59,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,62; 68,46</t>
+          <t>31,72; 67,52</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 14,44</t>
+          <t>4,63; 13,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,99; 21,63</t>
+          <t>12,6; 21,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,35; 18,08</t>
+          <t>9,54; 18,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,47; 14,44</t>
+          <t>4,63; 13,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,99; 21,63</t>
+          <t>12,6; 21,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,35; 18,08</t>
+          <t>9,54; 18,15</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,11; 43,78</t>
+          <t>12,78; 43,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,85; 65,0</t>
+          <t>33,49; 65,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,96; 55,01</t>
+          <t>24,73; 54,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,11; 43,78</t>
+          <t>12,78; 43,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,85; 65,0</t>
+          <t>33,49; 65,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,96; 55,01</t>
+          <t>24,73; 54,48</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,49; 14,28</t>
+          <t>3,5; 14,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 9,74</t>
+          <t>-0,26; 10,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,0; 48,11</t>
+          <t>15,59; 48,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,49; 14,28</t>
+          <t>3,5; 14,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 9,74</t>
+          <t>-0,26; 10,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,0; 48,11</t>
+          <t>15,59; 48,46</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,23; 38,05</t>
+          <t>8,31; 38,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 26,84</t>
+          <t>-0,72; 27,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>40,45; 128,14</t>
+          <t>38,63; 135,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,23; 38,05</t>
+          <t>8,31; 38,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 26,84</t>
+          <t>-0,72; 27,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>40,45; 128,14</t>
+          <t>38,63; 135,46</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,84; 11,65</t>
+          <t>3,19; 11,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,21; 15,38</t>
+          <t>6,48; 15,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 16,97</t>
+          <t>-2,83; 17,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,84; 11,65</t>
+          <t>3,19; 11,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,21; 15,38</t>
+          <t>6,48; 15,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 16,97</t>
+          <t>-2,83; 17,53</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,5; 30,46</t>
+          <t>7,41; 30,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,17; 39,08</t>
+          <t>14,88; 40,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 42,56</t>
+          <t>-6,48; 44,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,5; 30,46</t>
+          <t>7,41; 30,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,17; 39,08</t>
+          <t>14,88; 40,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 42,56</t>
+          <t>-6,48; 44,04</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,76</t>
+          <t>6,75; 11,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,69; 14,52</t>
+          <t>9,4; 14,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,1; 28,7</t>
+          <t>13,12; 28,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,76</t>
+          <t>6,75; 11,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,69; 14,52</t>
+          <t>9,4; 14,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13,1; 28,7</t>
+          <t>13,12; 28,66</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,55; 31,96</t>
+          <t>17,24; 31,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>24,93; 39,65</t>
+          <t>23,98; 39,03</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>33,96; 75,73</t>
+          <t>34,13; 77,23</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>17,55; 31,96</t>
+          <t>17,24; 31,67</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>24,93; 39,65</t>
+          <t>23,98; 39,03</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>33,96; 75,73</t>
+          <t>34,13; 77,23</t>
         </is>
       </c>
     </row>
